--- a/resources/data/SqlLoadExcel/connection.xlsx
+++ b/resources/data/SqlLoadExcel/connection.xlsx
@@ -310,67 +310,79 @@
     <t>SRR-T001</t>
   </si>
   <si>
-    <t>15,16,31,40</t>
-  </si>
-  <si>
-    <t>5,32,34,35</t>
-  </si>
-  <si>
-    <t>5,23,24,37</t>
-  </si>
-  <si>
-    <t>27,28,39,43</t>
-  </si>
-  <si>
-    <t>2,3,6,9,40,41,42,43</t>
-  </si>
-  <si>
-    <t>5,14,30,31</t>
-  </si>
-  <si>
-    <t>18,33,34,41</t>
-  </si>
-  <si>
-    <t>22,36,37,42</t>
-  </si>
-  <si>
-    <t>5,26,38,39</t>
-  </si>
-  <si>
-    <t>14,15,67,71</t>
-  </si>
-  <si>
-    <t>18,19,67,71</t>
-  </si>
-  <si>
-    <t>22,23,81,85</t>
-  </si>
-  <si>
-    <t>26,27,81,85</t>
+    <t>14,15,30,39</t>
+  </si>
+  <si>
+    <t>4,31,33,34</t>
+  </si>
+  <si>
+    <t>4,22,23,36</t>
+  </si>
+  <si>
+    <t>26,27,38,42</t>
+  </si>
+  <si>
+    <t>1,2,5,8,39,40,41,42</t>
+  </si>
+  <si>
+    <t>4,13,29,30</t>
+  </si>
+  <si>
+    <t>17,32,33,40</t>
+  </si>
+  <si>
+    <t>21,35,36,41</t>
+  </si>
+  <si>
+    <t>4,25,37,38</t>
+  </si>
+  <si>
+    <t>13,14,66,70</t>
+  </si>
+  <si>
+    <t>17,18,66,70</t>
+  </si>
+  <si>
+    <t>21,22,80,84</t>
+  </si>
+  <si>
+    <t>25,26,80,84</t>
+  </si>
+  <si>
+    <t>5,9</t>
+  </si>
+  <si>
+    <t>0,9</t>
+  </si>
+  <si>
+    <t>0,29</t>
+  </si>
+  <si>
+    <t>29,30</t>
   </si>
   <si>
     <t>6,10</t>
   </si>
   <si>
-    <t>1,10</t>
-  </si>
-  <si>
-    <t>1,30</t>
-  </si>
-  <si>
-    <t>30,31</t>
+    <t>10,34</t>
+  </si>
+  <si>
+    <t>31,32</t>
+  </si>
+  <si>
+    <t>32,33</t>
   </si>
   <si>
     <t>7,11</t>
   </si>
   <si>
-    <t>11,35</t>
-  </si>
-  <si>
-    <t>32,33</t>
-  </si>
-  <si>
-    <t>33,34</t>
+    <t>2,11</t>
+  </si>
+  <si>
+    <t>2,35</t>
+  </si>
+  <si>
+    <t>35,36</t>
   </si>
   <si>
     <t>8,12</t>
@@ -379,190 +391,184 @@
     <t>3,12</t>
   </si>
   <si>
-    <t>3,36</t>
-  </si>
-  <si>
-    <t>36,37</t>
-  </si>
-  <si>
-    <t>9,13</t>
-  </si>
-  <si>
-    <t>4,13</t>
-  </si>
-  <si>
-    <t>4,38</t>
-  </si>
-  <si>
-    <t>38,39</t>
-  </si>
-  <si>
-    <t>6,16,17</t>
-  </si>
-  <si>
-    <t>1,6,17</t>
-  </si>
-  <si>
-    <t>2,20,101</t>
-  </si>
-  <si>
-    <t>7,20,21</t>
-  </si>
-  <si>
-    <t>2,7,21</t>
-  </si>
-  <si>
-    <t>2,19,100</t>
-  </si>
-  <si>
-    <t>8,24,25</t>
-  </si>
-  <si>
-    <t>3,8,25</t>
-  </si>
-  <si>
-    <t>9,28,29</t>
-  </si>
-  <si>
-    <t>4,9,29</t>
-  </si>
-  <si>
-    <t>1,5,95</t>
-  </si>
-  <si>
-    <t>5,7,94</t>
-  </si>
-  <si>
-    <t>5,8,93</t>
-  </si>
-  <si>
-    <t>4,5,95</t>
-  </si>
-  <si>
-    <t>58,60,62</t>
-  </si>
-  <si>
-    <t>59,61,76</t>
-  </si>
-  <si>
-    <t>50,63</t>
-  </si>
-  <si>
-    <t>51,77</t>
-  </si>
-  <si>
-    <t>50,68,86,89</t>
-  </si>
-  <si>
-    <t>51,82,87,91</t>
+    <t>3,37</t>
+  </si>
+  <si>
+    <t>37,38</t>
+  </si>
+  <si>
+    <t>5,15,16</t>
+  </si>
+  <si>
+    <t>0,5,16</t>
+  </si>
+  <si>
+    <t>1,19,100</t>
+  </si>
+  <si>
+    <t>6,19,20</t>
+  </si>
+  <si>
+    <t>1,6,20</t>
+  </si>
+  <si>
+    <t>1,18,99</t>
+  </si>
+  <si>
+    <t>7,23,24</t>
+  </si>
+  <si>
+    <t>2,7,24</t>
+  </si>
+  <si>
+    <t>8,27,28</t>
+  </si>
+  <si>
+    <t>3,8,28</t>
+  </si>
+  <si>
+    <t>0,4,94</t>
+  </si>
+  <si>
+    <t>4,6,93</t>
+  </si>
+  <si>
+    <t>4,7,92</t>
+  </si>
+  <si>
+    <t>3,4,94</t>
+  </si>
+  <si>
+    <t>57,59,61</t>
+  </si>
+  <si>
+    <t>58,60,75</t>
+  </si>
+  <si>
+    <t>49,62</t>
+  </si>
+  <si>
+    <t>50,76</t>
+  </si>
+  <si>
+    <t>49,67,85,88</t>
+  </si>
+  <si>
+    <t>50,81,86,90</t>
+  </si>
+  <si>
+    <t>45,47</t>
   </si>
   <si>
     <t>46,48</t>
   </si>
   <si>
-    <t>47,49</t>
-  </si>
-  <si>
-    <t>68,72</t>
-  </si>
-  <si>
-    <t>72,82</t>
-  </si>
-  <si>
-    <t>64,74</t>
-  </si>
-  <si>
-    <t>74,78</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>76</t>
+    <t>67,71</t>
+  </si>
+  <si>
+    <t>71,81</t>
+  </si>
+  <si>
+    <t>63,73</t>
+  </si>
+  <si>
+    <t>73,77</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>43</t>
   </si>
   <si>
     <t>44</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>44,56,63</t>
-  </si>
-  <si>
-    <t>46,62,64</t>
-  </si>
-  <si>
-    <t>54,63,65</t>
+    <t>43,55,62</t>
+  </si>
+  <si>
+    <t>45,61,63</t>
+  </si>
+  <si>
+    <t>53,62,64</t>
+  </si>
+  <si>
+    <t>63,65</t>
   </si>
   <si>
     <t>64,66</t>
   </si>
   <si>
-    <t>65,67</t>
-  </si>
-  <si>
-    <t>10,11,66</t>
-  </si>
-  <si>
-    <t>48,52,69</t>
-  </si>
-  <si>
-    <t>70,72</t>
+    <t>9,10,65</t>
+  </si>
+  <si>
+    <t>47,51,68</t>
   </si>
   <si>
     <t>69,71</t>
   </si>
   <si>
-    <t>10,11,70</t>
-  </si>
-  <si>
-    <t>52,53,73</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>54,55,75</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>45,57,77</t>
-  </si>
-  <si>
-    <t>47,76,78</t>
-  </si>
-  <si>
-    <t>55,77,79</t>
+    <t>68,70</t>
+  </si>
+  <si>
+    <t>9,10,69</t>
+  </si>
+  <si>
+    <t>51,52,72</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>53,54,74</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>44,56,76</t>
+  </si>
+  <si>
+    <t>46,75,77</t>
+  </si>
+  <si>
+    <t>54,76,78</t>
+  </si>
+  <si>
+    <t>77,79</t>
   </si>
   <si>
     <t>78,80</t>
   </si>
   <si>
-    <t>79,81</t>
-  </si>
-  <si>
-    <t>12,13,80</t>
-  </si>
-  <si>
-    <t>49,53,83</t>
+    <t>11,12,79</t>
+  </si>
+  <si>
+    <t>48,52,82</t>
+  </si>
+  <si>
+    <t>81,83</t>
   </si>
   <si>
     <t>82,84</t>
   </si>
   <si>
-    <t>83,85</t>
-  </si>
-  <si>
-    <t>12,13,84</t>
-  </si>
-  <si>
-    <t>48,88</t>
-  </si>
-  <si>
-    <t>49,89</t>
+    <t>11,12,83</t>
+  </si>
+  <si>
+    <t>47,87</t>
+  </si>
+  <si>
+    <t>48,88,89</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>47</t>
   </si>
   <si>
     <t>86</t>
@@ -571,58 +577,52 @@
     <t>48</t>
   </si>
   <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>93,94,95</t>
-  </si>
-  <si>
-    <t>42,92</t>
-  </si>
-  <si>
-    <t>41,92</t>
-  </si>
-  <si>
-    <t>40,43,92</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>96,105</t>
-  </si>
-  <si>
-    <t>106,107</t>
+    <t>92,93,94</t>
+  </si>
+  <si>
+    <t>41,91</t>
+  </si>
+  <si>
+    <t>40,91</t>
+  </si>
+  <si>
+    <t>39,42,91</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>95,104</t>
   </si>
   <si>
     <t>105,106</t>
   </si>
   <si>
-    <t>35,106</t>
-  </si>
-  <si>
-    <t>32,108</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>105,107</t>
-  </si>
-  <si>
-    <t>97,99,104</t>
-  </si>
-  <si>
-    <t>98,99,100</t>
-  </si>
-  <si>
-    <t>98,104</t>
-  </si>
-  <si>
-    <t>101,102,103</t>
+    <t>104,105</t>
+  </si>
+  <si>
+    <t>34,105</t>
+  </si>
+  <si>
+    <t>31,107</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>104,106</t>
+  </si>
+  <si>
+    <t>96,98,103</t>
+  </si>
+  <si>
+    <t>97,98,99</t>
+  </si>
+  <si>
+    <t>97,103</t>
+  </si>
+  <si>
+    <t>100,101,102</t>
   </si>
 </sst>
 </file>
@@ -999,7 +999,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>46</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>53</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>54</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>55</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>56</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>57</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>58</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>59</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>64</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>65</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>66</v>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
         <v>67</v>
